--- a/medicine/Psychotrope/Thé_aux_pignons/Thé_aux_pignons.xlsx
+++ b/medicine/Psychotrope/Thé_aux_pignons/Thé_aux_pignons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9_aux_pignons</t>
+          <t>Thé_aux_pignons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thé aux pignons est une spécialité de thé à la menthe consommée en Tunisie. Il est accompagné de pignons qui peuvent être remplacés par des amandes ou des cacahuètes grillées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9_aux_pignons</t>
+          <t>Thé_aux_pignons</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le thé aux pignons peut se préparer avec des feuilles de thé vert (thé non fermenté) ou de thé rouge, c'est-à-dire un thé noir très corsé et très sucré[1].
-De l'eau est bouillie dans une théière alors qu'une poignée de feuilles de thé est rincée à l'eau bouillante avant de la mettre à bouillir à feu doux dans la théière à moitié remplie d'eau ; du sucre y est ajouté à volonté. Les pignons sont versés dans la tasse individuelle avant de verser le thé[1],[2]. Dans du thé vert très sucré, ils flottent ; dans les autres thés, ils coulent[1]. L'intérêt de la recette est plutôt la texture croquante que le goût des pignons en eux-mêmes[3] ; il est également possible que la recette trouve un bienfait thérapeutique aux pignons, riches en vitamine E[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thé aux pignons peut se préparer avec des feuilles de thé vert (thé non fermenté) ou de thé rouge, c'est-à-dire un thé noir très corsé et très sucré.
+De l'eau est bouillie dans une théière alors qu'une poignée de feuilles de thé est rincée à l'eau bouillante avant de la mettre à bouillir à feu doux dans la théière à moitié remplie d'eau ; du sucre y est ajouté à volonté. Les pignons sont versés dans la tasse individuelle avant de verser le thé,. Dans du thé vert très sucré, ils flottent ; dans les autres thés, ils coulent. L'intérêt de la recette est plutôt la texture croquante que le goût des pignons en eux-mêmes ; il est également possible que la recette trouve un bienfait thérapeutique aux pignons, riches en vitamine E.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9_aux_pignons</t>
+          <t>Thé_aux_pignons</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Occasions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le thé est utilisé au cours d'événements particuliers comme les mariages ou pendant des rencontres amicales[2]. Dans les cafés de Tunis, on demande généralement aux clients s'ils veulent leur thé à la menthe avec ou sans pignons[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thé est utilisé au cours d'événements particuliers comme les mariages ou pendant des rencontres amicales. Dans les cafés de Tunis, on demande généralement aux clients s'ils veulent leur thé à la menthe avec ou sans pignons.
 </t>
         </is>
       </c>
